--- a/git test.xlsx
+++ b/git test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koyama yuta\Documents\Python 課題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koyama yuta\Documents\smart git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -426,6 +426,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/git test.xlsx
+++ b/git test.xlsx
@@ -21,6 +21,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,91 +352,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C1">
+        <f>A1^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <f t="shared" ref="C2:C16" si="0">A2^2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>16</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/git test.xlsx
+++ b/git test.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,15 +348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -368,8 +364,12 @@
         <f>A1^2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E1">
+        <f>C1^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -377,8 +377,12 @@
         <f t="shared" ref="C2:C16" si="0">A2^2</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <f t="shared" ref="E2:E16" si="1">C2^2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -386,8 +390,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -395,8 +403,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -404,8 +416,12 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -413,8 +429,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -422,8 +442,12 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -431,8 +455,12 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -440,8 +468,12 @@
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -449,8 +481,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -458,8 +494,12 @@
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>14641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>12</v>
       </c>
@@ -467,8 +507,12 @@
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>20736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>13</v>
       </c>
@@ -476,8 +520,12 @@
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>28561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>14</v>
       </c>
@@ -485,8 +533,12 @@
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>38416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>15</v>
       </c>
@@ -494,14 +546,22 @@
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>50625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>256</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>65536</v>
       </c>
     </row>
   </sheetData>

--- a/git test.xlsx
+++ b/git test.xlsx
@@ -21,6 +21,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83,6 +87,966 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14641</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20736</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28561</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38416</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D84-4F26-83A6-649E1B925B75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="816129167"/>
+        <c:axId val="816125839"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="816129167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816125839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="816125839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816129167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,7 +1315,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -364,6 +1328,9 @@
         <f>A1^2</f>
         <v>1</v>
       </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
       <c r="E1">
         <f>C1^2</f>
         <v>1</v>
@@ -377,6 +1344,9 @@
         <f t="shared" ref="C2:C16" si="0">A2^2</f>
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
       <c r="E2">
         <f t="shared" ref="E2:E16" si="1">C2^2</f>
         <v>16</v>
@@ -390,6 +1360,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
       <c r="E3">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -400,8 +1373,11 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>A4^2</f>
         <v>16</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -416,6 +1392,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
       <c r="E5">
         <f t="shared" si="1"/>
         <v>625</v>
@@ -429,6 +1408,9 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
       <c r="E6">
         <f t="shared" si="1"/>
         <v>1296</v>
@@ -442,6 +1424,9 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
       <c r="E7">
         <f t="shared" si="1"/>
         <v>2401</v>
@@ -455,6 +1440,9 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
       <c r="E8">
         <f t="shared" si="1"/>
         <v>4096</v>
@@ -468,6 +1456,9 @@
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
       <c r="E9">
         <f t="shared" si="1"/>
         <v>6561</v>
@@ -481,6 +1472,9 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
       <c r="E10">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -494,6 +1488,9 @@
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
       <c r="E11">
         <f t="shared" si="1"/>
         <v>14641</v>
@@ -507,6 +1504,9 @@
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
       <c r="E12">
         <f t="shared" si="1"/>
         <v>20736</v>
@@ -520,6 +1520,9 @@
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
       <c r="E13">
         <f t="shared" si="1"/>
         <v>28561</v>
@@ -533,6 +1536,9 @@
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
       <c r="E14">
         <f t="shared" si="1"/>
         <v>38416</v>
@@ -546,6 +1552,9 @@
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
       <c r="E15">
         <f t="shared" si="1"/>
         <v>50625</v>
@@ -558,6 +1567,9 @@
       <c r="C16">
         <f t="shared" si="0"/>
         <v>256</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
@@ -568,5 +1580,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/git test.xlsx
+++ b/git test.xlsx
@@ -348,15 +348,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -368,8 +371,12 @@
         <f>C1^2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G1">
+        <f>E1^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -381,8 +388,12 @@
         <f t="shared" ref="E2:E16" si="1">C2^2</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <f t="shared" ref="G2:G16" si="2">E2^2</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -394,8 +405,12 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G3">
+        <f t="shared" si="2"/>
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -407,8 +422,12 @@
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -420,8 +439,12 @@
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>390625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -433,8 +456,12 @@
         <f t="shared" si="1"/>
         <v>1296</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>1679616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -446,8 +473,12 @@
         <f t="shared" si="1"/>
         <v>2401</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>5764801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -459,8 +490,12 @@
         <f t="shared" si="1"/>
         <v>4096</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>16777216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -472,8 +507,12 @@
         <f t="shared" si="1"/>
         <v>6561</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>43046721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -485,8 +524,12 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -498,8 +541,12 @@
         <f t="shared" si="1"/>
         <v>14641</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>214358881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>12</v>
       </c>
@@ -511,8 +558,12 @@
         <f t="shared" si="1"/>
         <v>20736</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>429981696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>13</v>
       </c>
@@ -524,8 +575,12 @@
         <f t="shared" si="1"/>
         <v>28561</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>815730721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>14</v>
       </c>
@@ -537,8 +592,12 @@
         <f t="shared" si="1"/>
         <v>38416</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1475789056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>15</v>
       </c>
@@ -550,8 +609,12 @@
         <f t="shared" si="1"/>
         <v>50625</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2562890625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>16</v>
       </c>
@@ -562,6 +625,10 @@
       <c r="E16">
         <f t="shared" si="1"/>
         <v>65536</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>4294967296</v>
       </c>
     </row>
   </sheetData>

--- a/git test.xlsx
+++ b/git test.xlsx
@@ -348,18 +348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -371,12 +368,8 @@
         <f>C1^2</f>
         <v>1</v>
       </c>
-      <c r="G1">
-        <f>E1^2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -388,12 +381,8 @@
         <f t="shared" ref="E2:E16" si="1">C2^2</f>
         <v>16</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G16" si="2">E2^2</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -405,12 +394,8 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="G3">
-        <f t="shared" si="2"/>
-        <v>6561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -422,12 +407,8 @@
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -439,12 +420,8 @@
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>390625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -456,12 +433,8 @@
         <f t="shared" si="1"/>
         <v>1296</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>1679616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -473,12 +446,8 @@
         <f t="shared" si="1"/>
         <v>2401</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>5764801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -490,12 +459,8 @@
         <f t="shared" si="1"/>
         <v>4096</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>16777216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -507,12 +472,8 @@
         <f t="shared" si="1"/>
         <v>6561</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>43046721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -524,12 +485,8 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -541,12 +498,8 @@
         <f t="shared" si="1"/>
         <v>14641</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>214358881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>12</v>
       </c>
@@ -558,12 +511,8 @@
         <f t="shared" si="1"/>
         <v>20736</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>429981696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>13</v>
       </c>
@@ -575,12 +524,8 @@
         <f t="shared" si="1"/>
         <v>28561</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>815730721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>14</v>
       </c>
@@ -592,12 +537,8 @@
         <f t="shared" si="1"/>
         <v>38416</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>1475789056</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>15</v>
       </c>
@@ -609,12 +550,8 @@
         <f t="shared" si="1"/>
         <v>50625</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>2562890625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>16</v>
       </c>
@@ -625,10 +562,6 @@
       <c r="E16">
         <f t="shared" si="1"/>
         <v>65536</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>4294967296</v>
       </c>
     </row>
   </sheetData>

--- a/git test.xlsx
+++ b/git test.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,9 +427,8 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="accent2">
+          <a:lumMod val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1315,7 +1310,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
